--- a/Acotamiento/ejercicios1.xlsx
+++ b/Acotamiento/ejercicios1.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7800" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7800" firstSheet="1" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,8 @@
     <sheet name="Hoja4" sheetId="4" r:id="rId4"/>
     <sheet name="Hoja5" sheetId="5" r:id="rId5"/>
     <sheet name="Hoja6" sheetId="6" r:id="rId6"/>
+    <sheet name="Hoja7" sheetId="7" r:id="rId7"/>
+    <sheet name="Hoja8" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -579,7 +581,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2036,7 +2037,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3446,6 +3446,92 @@
         <a:xfrm>
           <a:off x="762000" y="762000"/>
           <a:ext cx="9754961" cy="6087325"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>610961</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>162772</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Imagen 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9754961" cy="6068272"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>610961</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>96088</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Imagen 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9754961" cy="6001588"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3723,7 +3809,7 @@
   <dimension ref="B1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5271,7 +5357,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
@@ -5280,4 +5366,30 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>